--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H2">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N2">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q2">
-        <v>222.4693109509838</v>
+        <v>12.306010601449</v>
       </c>
       <c r="R2">
-        <v>2002.223798558854</v>
+        <v>110.754095413041</v>
       </c>
       <c r="S2">
-        <v>0.06966457605385391</v>
+        <v>0.006928803484185967</v>
       </c>
       <c r="T2">
-        <v>0.06966457605385391</v>
+        <v>0.006928803484185965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H3">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P3">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q3">
-        <v>151.2699334414477</v>
+        <v>32.56275278682634</v>
       </c>
       <c r="R3">
-        <v>1361.429400973029</v>
+        <v>293.064775081437</v>
       </c>
       <c r="S3">
-        <v>0.04736903143110377</v>
+        <v>0.01833420450145576</v>
       </c>
       <c r="T3">
-        <v>0.04736903143110378</v>
+        <v>0.01833420450145576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H4">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P4">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q4">
-        <v>1158.797557078787</v>
+        <v>249.445726078411</v>
       </c>
       <c r="R4">
-        <v>10429.17801370908</v>
+        <v>2245.011534705699</v>
       </c>
       <c r="S4">
-        <v>0.3628686590570764</v>
+        <v>0.1404484744848084</v>
       </c>
       <c r="T4">
-        <v>0.3628686590570765</v>
+        <v>0.1404484744848084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
         <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N5">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q5">
-        <v>187.849548250364</v>
+        <v>48.271282091802</v>
       </c>
       <c r="R5">
-        <v>1690.645934253276</v>
+        <v>434.441538826218</v>
       </c>
       <c r="S5">
-        <v>0.05882366014813115</v>
+        <v>0.02717876965784665</v>
       </c>
       <c r="T5">
-        <v>0.05882366014813115</v>
+        <v>0.02717876965784665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
         <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P6">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q6">
         <v>127.729926160914</v>
@@ -818,10 +818,10 @@
         <v>1149.569335448226</v>
       </c>
       <c r="S6">
-        <v>0.03999765683344374</v>
+        <v>0.07191734072733115</v>
       </c>
       <c r="T6">
-        <v>0.03999765683344374</v>
+        <v>0.07191734072733112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
         <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P7">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q7">
-        <v>978.4702289064779</v>
+        <v>978.4702289064778</v>
       </c>
       <c r="R7">
-        <v>8806.232060158301</v>
+        <v>8806.2320601583</v>
       </c>
       <c r="S7">
-        <v>0.3064005250283971</v>
+        <v>0.5509200463732056</v>
       </c>
       <c r="T7">
-        <v>0.3064005250283972</v>
+        <v>0.5509200463732056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N8">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q8">
-        <v>53.25326050127489</v>
+        <v>13.684372328323</v>
       </c>
       <c r="R8">
-        <v>479.2793445114739</v>
+        <v>123.159350954907</v>
       </c>
       <c r="S8">
-        <v>0.01667585430299708</v>
+        <v>0.007704879325897709</v>
       </c>
       <c r="T8">
-        <v>0.01667585430299708</v>
+        <v>0.007704879325897707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.451331</v>
       </c>
       <c r="O9">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P9">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q9">
         <v>36.21001538204433</v>
@@ -1004,10 +1004,10 @@
         <v>325.8901384383989</v>
       </c>
       <c r="S9">
-        <v>0.01133889146197534</v>
+        <v>0.02038776731689101</v>
       </c>
       <c r="T9">
-        <v>0.01133889146197534</v>
+        <v>0.020387767316891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>57.080637</v>
       </c>
       <c r="O10">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P10">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q10">
         <v>277.3854421158969</v>
@@ -1066,10 +1066,10 @@
         <v>2496.468979043073</v>
       </c>
       <c r="S10">
-        <v>0.0868611456830214</v>
+        <v>0.1561797141283778</v>
       </c>
       <c r="T10">
-        <v>0.08686114568302142</v>
+        <v>0.1561797141283778</v>
       </c>
     </row>
   </sheetData>
